--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc208_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc208_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1005,10 +1029,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J30" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="K30" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1052,28 +1076,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="3">
+      <c r="A32" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="3">
+      <c r="B32" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="3">
+      <c r="C32" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D32" t="s" s="3">
+      <c r="D32" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="3">
+      <c r="E32" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="3">
+      <c r="F32" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="3">
+      <c r="G32" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="3">
+      <c r="H32" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1098,28 +1122,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="3">
+      <c r="B34" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="3">
+      <c r="C34" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="3">
+      <c r="D34" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="3">
+      <c r="E34" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="3">
+      <c r="F34" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="3">
+      <c r="G34" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="3">
+      <c r="H34" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="3">
+      <c r="I34" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1671,10 +1695,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="J53" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K53" s="3" t="s">
+      <c r="K53" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1718,28 +1742,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="3">
+      <c r="A55" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="3">
+      <c r="B55" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="3">
+      <c r="C55" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D55" t="s" s="3">
+      <c r="D55" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="3">
+      <c r="E55" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="3">
+      <c r="F55" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="3">
+      <c r="G55" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="3">
+      <c r="H55" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1764,28 +1788,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="3">
+      <c r="B57" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="3">
+      <c r="C57" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="3">
+      <c r="D57" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="3">
+      <c r="E57" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="3">
+      <c r="F57" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="3">
+      <c r="G57" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="3">
+      <c r="H57" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="3">
+      <c r="I57" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2308,10 +2332,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="3" t="s">
+      <c r="J75" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K75" s="3" t="s">
+      <c r="K75" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2355,28 +2379,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="3">
+      <c r="A77" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="3">
+      <c r="B77" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="3">
+      <c r="C77" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D77" t="s" s="3">
+      <c r="D77" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="3">
+      <c r="E77" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="3">
+      <c r="F77" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="3">
+      <c r="G77" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="3">
+      <c r="H77" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2401,28 +2425,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="3">
+      <c r="B79" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="3">
+      <c r="C79" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="3">
+      <c r="D79" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="3">
+      <c r="E79" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="3">
+      <c r="F79" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="3">
+      <c r="G79" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="3">
+      <c r="H79" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="3">
+      <c r="I79" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3003,10 +3027,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="3" t="s">
+      <c r="J99" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K99" s="3" t="s">
+      <c r="K99" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3050,28 +3074,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="3">
+      <c r="A101" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="3">
+      <c r="B101" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="3">
+      <c r="C101" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D101" t="s" s="3">
+      <c r="D101" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="3">
+      <c r="E101" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="3">
+      <c r="F101" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="3">
+      <c r="G101" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="3">
+      <c r="H101" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3096,28 +3120,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="3">
+      <c r="B103" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="3">
+      <c r="C103" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="3">
+      <c r="D103" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="3">
+      <c r="E103" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="3">
+      <c r="F103" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="3">
+      <c r="G103" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="3">
+      <c r="H103" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="3">
+      <c r="I103" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3495,10 +3519,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="3" t="s">
+      <c r="J116" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K116" s="3" t="s">
+      <c r="K116" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3542,28 +3566,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="3">
+      <c r="A118" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="3">
+      <c r="B118" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="3">
+      <c r="C118" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D118" t="s" s="3">
+      <c r="D118" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="3">
+      <c r="E118" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="3">
+      <c r="F118" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="3">
+      <c r="G118" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="3">
+      <c r="H118" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3588,28 +3612,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="3">
+      <c r="B120" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="3">
+      <c r="C120" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="3">
+      <c r="D120" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="3">
+      <c r="E120" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="3">
+      <c r="F120" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="3">
+      <c r="G120" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="3">
+      <c r="H120" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="3">
+      <c r="I120" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3900,10 +3924,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="3" t="s">
+      <c r="J130" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K130" s="3" t="s">
+      <c r="K130" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3947,28 +3971,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="3">
+      <c r="A132" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="3">
+      <c r="B132" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="3">
+      <c r="C132" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D132" t="s" s="3">
+      <c r="D132" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="3">
+      <c r="E132" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="3">
+      <c r="F132" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="3">
+      <c r="G132" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="3">
+      <c r="H132" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3993,28 +4017,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="3">
+      <c r="B134" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="3">
+      <c r="C134" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="3">
+      <c r="D134" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="3">
+      <c r="E134" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="3">
+      <c r="F134" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="3">
+      <c r="G134" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="3">
+      <c r="H134" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="3">
+      <c r="I134" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4073,10 +4097,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="3" t="s">
+      <c r="J136" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K136" s="3" t="s">
+      <c r="K136" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
